--- a/ResultadoEleicoesDistritos/SETÚBAL_SANTIAGO DO CACÉM.xlsx
+++ b/ResultadoEleicoesDistritos/SETÚBAL_SANTIAGO DO CACÉM.xlsx
@@ -597,64 +597,64 @@
         <v>7194</v>
       </c>
       <c r="H2" t="n">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="I2" t="n">
-        <v>698</v>
+        <v>749</v>
       </c>
       <c r="J2" t="n">
-        <v>2961</v>
+        <v>2931</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L2" t="n">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="M2" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N2" t="n">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="O2" t="n">
         <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="S2" t="n">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="T2" t="n">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="U2" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="V2" t="n">
-        <v>4613</v>
+        <v>4575</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>4565</v>
+        <v>4651</v>
       </c>
       <c r="Y2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="AA2" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
